--- a/nmadb/501358.xlsx
+++ b/nmadb/501358.xlsx
@@ -1,7 +1,7 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9303"/>
+  <fileVersion appName="xl" lastEdited="4" lowestEdited="5" rupBuild="4505"/>
   <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
     <workbookView xWindow="480" yWindow="360" windowWidth="19440" windowHeight="10260"/>
@@ -11,7 +11,7 @@
     <sheet name="Sheet2" sheetId="2" r:id="rId2"/>
     <sheet name="Sheet3" sheetId="3" r:id="rId3"/>
   </sheets>
-  <calcPr calcId="145621"/>
+  <calcPr calcId="124519"/>
 </workbook>
 </file>
 
@@ -21,13 +21,7 @@
     <t>id</t>
   </si>
   <si>
-    <t>MD</t>
-  </si>
-  <si>
     <t>SE</t>
-  </si>
-  <si>
-    <t>trt</t>
   </si>
   <si>
     <t>Beneficial</t>
@@ -85,12 +79,18 @@
   <si>
     <t>This data was sent to us from the author, it is based on a 1-year update of the original NMA that includes 5 additional studies and 1 additional treatment. The code the author sent us did not contain any identifying information for the trials and thus it is impossible to determine which were originally included in the NMA and which are from the update</t>
   </si>
+  <si>
+    <t>t</t>
+  </si>
+  <si>
+    <t>y</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="3" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <fonts count="3">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -148,11 +148,11 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -169,7 +169,7 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Thème Office">
   <a:themeElements>
     <a:clrScheme name="Office">
       <a:dk1>
@@ -243,7 +243,6 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
-        <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
         <a:latin typeface="Calibri"/>
@@ -278,7 +277,6 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
-        <a:font script="Geor" typeface="Sylfaen"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -454,41 +452,42 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:I41"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E8" sqref="E8"/>
+      <selection activeCell="M20" sqref="M20"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15"/>
   <cols>
     <col min="1" max="4" width="9.140625" style="1"/>
     <col min="6" max="6" width="9.7109375" customWidth="1"/>
     <col min="7" max="7" width="37.7109375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A1" s="5" t="s">
+    <row r="1" spans="1:9">
+      <c r="A1" s="4" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="5" t="s">
-        <v>3</v>
-      </c>
-      <c r="C1" s="5" t="s">
-        <v>1</v>
-      </c>
-      <c r="D1" s="5" t="s">
+      <c r="B1" s="4" t="s">
+        <v>17</v>
+      </c>
+      <c r="C1" s="4" t="s">
+        <v>18</v>
+      </c>
+      <c r="D1" s="4" t="s">
+        <v>1</v>
+      </c>
+      <c r="E1" s="4"/>
+      <c r="F1" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="F1" s="2" t="s">
-        <v>4</v>
-      </c>
       <c r="G1" s="2" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="2" spans="1:9" x14ac:dyDescent="0.25">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="2" spans="1:9">
       <c r="A2" s="1">
         <v>1</v>
       </c>
@@ -502,7 +501,7 @@
         <v>0.9</v>
       </c>
     </row>
-    <row r="3" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:9">
       <c r="A3" s="1">
         <v>1</v>
       </c>
@@ -516,13 +515,13 @@
         <v>0.89</v>
       </c>
       <c r="G3" s="2" t="s">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="H3" s="2" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="4" spans="1:9" x14ac:dyDescent="0.25">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="4" spans="1:9">
       <c r="A4" s="1">
         <v>2</v>
       </c>
@@ -536,13 +535,13 @@
         <v>0.82</v>
       </c>
       <c r="G4" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="H4" s="3">
         <v>1</v>
       </c>
     </row>
-    <row r="5" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:9">
       <c r="A5" s="1">
         <v>2</v>
       </c>
@@ -556,13 +555,13 @@
         <v>0.84</v>
       </c>
       <c r="G5" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="H5" s="3">
         <v>2</v>
       </c>
     </row>
-    <row r="6" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:9">
       <c r="A6" s="1">
         <v>3</v>
       </c>
@@ -576,13 +575,13 @@
         <v>0.62</v>
       </c>
       <c r="G6" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="H6" s="3">
         <v>3</v>
       </c>
     </row>
-    <row r="7" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:9">
       <c r="A7" s="1">
         <v>3</v>
       </c>
@@ -596,13 +595,13 @@
         <v>0.33</v>
       </c>
       <c r="G7" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="H7" s="3">
         <v>4</v>
       </c>
     </row>
-    <row r="8" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:9">
       <c r="A8" s="1">
         <v>4</v>
       </c>
@@ -616,13 +615,13 @@
         <v>0.88</v>
       </c>
       <c r="G8" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="H8" s="3">
         <v>5</v>
       </c>
     </row>
-    <row r="9" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:9">
       <c r="A9" s="1">
         <v>4</v>
       </c>
@@ -636,13 +635,13 @@
         <v>0.89</v>
       </c>
       <c r="G9" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="H9" s="3">
         <v>6</v>
       </c>
     </row>
-    <row r="10" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:9">
       <c r="A10" s="1">
         <v>5</v>
       </c>
@@ -656,13 +655,13 @@
         <v>1.21</v>
       </c>
       <c r="G10" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="H10" s="3">
         <v>7</v>
       </c>
     </row>
-    <row r="11" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:9">
       <c r="A11" s="1">
         <v>5</v>
       </c>
@@ -676,13 +675,13 @@
         <v>0.79</v>
       </c>
       <c r="G11" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="H11" s="3">
         <v>8</v>
       </c>
     </row>
-    <row r="12" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:9">
       <c r="A12" s="1">
         <v>6</v>
       </c>
@@ -696,13 +695,13 @@
         <v>0.57999999999999996</v>
       </c>
       <c r="G12" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="H12" s="3">
         <v>9</v>
       </c>
     </row>
-    <row r="13" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:9">
       <c r="A13" s="1">
         <v>6</v>
       </c>
@@ -716,13 +715,13 @@
         <v>0.59</v>
       </c>
       <c r="G13" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="H13" s="3">
         <v>10</v>
       </c>
     </row>
-    <row r="14" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:9">
       <c r="A14" s="1">
         <v>7</v>
       </c>
@@ -736,7 +735,7 @@
         <v>1.19</v>
       </c>
     </row>
-    <row r="15" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:9">
       <c r="A15" s="1">
         <v>7</v>
       </c>
@@ -750,7 +749,7 @@
         <v>0.96</v>
       </c>
     </row>
-    <row r="16" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:9">
       <c r="A16" s="1">
         <v>8</v>
       </c>
@@ -763,13 +762,13 @@
       <c r="D16" s="1">
         <v>0.32</v>
       </c>
-      <c r="G16" s="4" t="s">
-        <v>18</v>
-      </c>
-      <c r="H16" s="4"/>
-      <c r="I16" s="4"/>
-    </row>
-    <row r="17" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="G16" s="5" t="s">
+        <v>16</v>
+      </c>
+      <c r="H16" s="5"/>
+      <c r="I16" s="5"/>
+    </row>
+    <row r="17" spans="1:9">
       <c r="A17" s="1">
         <v>8</v>
       </c>
@@ -782,11 +781,11 @@
       <c r="D17" s="1">
         <v>0.31</v>
       </c>
-      <c r="G17" s="4"/>
-      <c r="H17" s="4"/>
-      <c r="I17" s="4"/>
-    </row>
-    <row r="18" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="G17" s="5"/>
+      <c r="H17" s="5"/>
+      <c r="I17" s="5"/>
+    </row>
+    <row r="18" spans="1:9">
       <c r="A18" s="1">
         <v>9</v>
       </c>
@@ -799,11 +798,11 @@
       <c r="D18" s="1">
         <v>1.26</v>
       </c>
-      <c r="G18" s="4"/>
-      <c r="H18" s="4"/>
-      <c r="I18" s="4"/>
-    </row>
-    <row r="19" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="G18" s="5"/>
+      <c r="H18" s="5"/>
+      <c r="I18" s="5"/>
+    </row>
+    <row r="19" spans="1:9">
       <c r="A19" s="1">
         <v>9</v>
       </c>
@@ -816,11 +815,11 @@
       <c r="D19" s="1">
         <v>1.82</v>
       </c>
-      <c r="G19" s="4"/>
-      <c r="H19" s="4"/>
-      <c r="I19" s="4"/>
-    </row>
-    <row r="20" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="G19" s="5"/>
+      <c r="H19" s="5"/>
+      <c r="I19" s="5"/>
+    </row>
+    <row r="20" spans="1:9">
       <c r="A20" s="1">
         <v>10</v>
       </c>
@@ -833,11 +832,11 @@
       <c r="D20" s="1">
         <v>1.22</v>
       </c>
-      <c r="G20" s="4"/>
-      <c r="H20" s="4"/>
-      <c r="I20" s="4"/>
-    </row>
-    <row r="21" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="G20" s="5"/>
+      <c r="H20" s="5"/>
+      <c r="I20" s="5"/>
+    </row>
+    <row r="21" spans="1:9">
       <c r="A21" s="1">
         <v>10</v>
       </c>
@@ -850,11 +849,11 @@
       <c r="D21" s="1">
         <v>2.4900000000000002</v>
       </c>
-      <c r="G21" s="4"/>
-      <c r="H21" s="4"/>
-      <c r="I21" s="4"/>
-    </row>
-    <row r="22" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="G21" s="5"/>
+      <c r="H21" s="5"/>
+      <c r="I21" s="5"/>
+    </row>
+    <row r="22" spans="1:9">
       <c r="A22" s="1">
         <v>11</v>
       </c>
@@ -867,11 +866,11 @@
       <c r="D22" s="1">
         <v>2.54</v>
       </c>
-      <c r="G22" s="4"/>
-      <c r="H22" s="4"/>
-      <c r="I22" s="4"/>
-    </row>
-    <row r="23" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="G22" s="5"/>
+      <c r="H22" s="5"/>
+      <c r="I22" s="5"/>
+    </row>
+    <row r="23" spans="1:9">
       <c r="A23" s="1">
         <v>11</v>
       </c>
@@ -885,7 +884,7 @@
         <v>2.56</v>
       </c>
     </row>
-    <row r="24" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:9">
       <c r="A24" s="1">
         <v>12</v>
       </c>
@@ -899,7 +898,7 @@
         <v>1.1200000000000001</v>
       </c>
     </row>
-    <row r="25" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:9">
       <c r="A25" s="1">
         <v>12</v>
       </c>
@@ -913,7 +912,7 @@
         <v>1.07</v>
       </c>
     </row>
-    <row r="26" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:9">
       <c r="A26" s="1">
         <v>13</v>
       </c>
@@ -927,7 +926,7 @@
         <v>0.9</v>
       </c>
     </row>
-    <row r="27" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:9">
       <c r="A27" s="1">
         <v>13</v>
       </c>
@@ -941,7 +940,7 @@
         <v>1.24</v>
       </c>
     </row>
-    <row r="28" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:9">
       <c r="A28" s="1">
         <v>14</v>
       </c>
@@ -955,7 +954,7 @@
         <v>3.33</v>
       </c>
     </row>
-    <row r="29" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:9">
       <c r="A29" s="1">
         <v>14</v>
       </c>
@@ -969,7 +968,7 @@
         <v>3.69</v>
       </c>
     </row>
-    <row r="30" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:9">
       <c r="A30" s="1">
         <v>15</v>
       </c>
@@ -983,7 +982,7 @@
         <v>0.6</v>
       </c>
     </row>
-    <row r="31" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:9">
       <c r="A31" s="1">
         <v>15</v>
       </c>
@@ -997,7 +996,7 @@
         <v>0.49</v>
       </c>
     </row>
-    <row r="32" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:9">
       <c r="A32" s="1">
         <v>16</v>
       </c>
@@ -1011,7 +1010,7 @@
         <v>2.13</v>
       </c>
     </row>
-    <row r="33" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:4">
       <c r="A33" s="1">
         <v>16</v>
       </c>
@@ -1025,7 +1024,7 @@
         <v>2.21</v>
       </c>
     </row>
-    <row r="34" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:4">
       <c r="A34" s="1">
         <v>17</v>
       </c>
@@ -1039,7 +1038,7 @@
         <v>0.74</v>
       </c>
     </row>
-    <row r="35" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:4">
       <c r="A35" s="1">
         <v>17</v>
       </c>
@@ -1053,7 +1052,7 @@
         <v>0.69</v>
       </c>
     </row>
-    <row r="36" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:4">
       <c r="A36" s="1">
         <v>18</v>
       </c>
@@ -1067,7 +1066,7 @@
         <v>2.0699999999999998</v>
       </c>
     </row>
-    <row r="37" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:4">
       <c r="A37" s="1">
         <v>18</v>
       </c>
@@ -1081,7 +1080,7 @@
         <v>1.56</v>
       </c>
     </row>
-    <row r="38" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:4">
       <c r="A38" s="1">
         <v>19</v>
       </c>
@@ -1095,7 +1094,7 @@
         <v>0.57999999999999996</v>
       </c>
     </row>
-    <row r="39" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:4">
       <c r="A39" s="1">
         <v>19</v>
       </c>
@@ -1109,7 +1108,7 @@
         <v>0.62</v>
       </c>
     </row>
-    <row r="40" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:4">
       <c r="A40" s="1">
         <v>20</v>
       </c>
@@ -1123,7 +1122,7 @@
         <v>0.6</v>
       </c>
     </row>
-    <row r="41" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:4">
       <c r="A41" s="1">
         <v>20</v>
       </c>
@@ -1147,24 +1146,24 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15"/>
   <sheetData/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15"/>
   <sheetData/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
